--- a/test_signup/Utrecht/NTDS_Utrecht.xlsx
+++ b/test_signup/Utrecht/NTDS_Utrecht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="196">
   <si>
     <t>Nr.</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
   <si>
     <t>Arseni</t>
@@ -975,15 +972,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,210 +1050,207 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" t="s">
         <v>195</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>195</v>
       </c>
-      <c r="L5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
@@ -1265,108 +1259,108 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" t="s">
         <v>195</v>
       </c>
-      <c r="K10" t="s">
-        <v>195</v>
-      </c>
-      <c r="M10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
         <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H13" s="1">
         <v>8</v>
@@ -1375,27 +1369,27 @@
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1">
         <v>45</v>
@@ -1404,27 +1398,27 @@
         <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="1">
         <v>16</v>
@@ -1433,33 +1427,33 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N16" t="s">
         <v>195</v>
-      </c>
-      <c r="N16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1467,16 +1461,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H17" s="1">
         <v>14</v>
@@ -1485,10 +1479,10 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1496,27 +1490,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="s">
         <v>195</v>
-      </c>
-      <c r="K18" t="s">
-        <v>195</v>
-      </c>
-      <c r="M18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1524,30 +1518,30 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
         <v>195</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>195</v>
-      </c>
-      <c r="L19" t="s">
-        <v>196</v>
-      </c>
-      <c r="M19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1555,16 +1549,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H20" s="1">
         <v>58</v>
@@ -1573,10 +1567,10 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1584,27 +1578,27 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N21" t="s">
         <v>195</v>
-      </c>
-      <c r="K21" t="s">
-        <v>195</v>
-      </c>
-      <c r="N21" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1612,24 +1606,24 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1637,24 +1631,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1662,19 +1656,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="1">
         <v>43</v>
@@ -1683,10 +1677,10 @@
         <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1694,16 +1688,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="1">
         <v>76</v>
@@ -1712,10 +1706,10 @@
         <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1723,24 +1717,24 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1748,19 +1742,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="1">
         <v>81</v>
@@ -1769,10 +1763,10 @@
         <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1780,16 +1774,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H28" s="1">
         <v>68</v>
@@ -1798,10 +1792,10 @@
         <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1809,16 +1803,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" s="1">
         <v>71</v>
@@ -1827,10 +1821,10 @@
         <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1838,24 +1832,24 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1863,29 +1857,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1893,27 +1887,27 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1921,27 +1915,27 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1949,13 +1943,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
@@ -1963,7 +1957,7 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1971,24 +1965,24 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1996,24 +1990,24 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2021,16 +2015,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="1">
         <v>77</v>
@@ -2039,10 +2033,10 @@
         <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2050,16 +2044,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1">
         <v>70</v>
@@ -2068,10 +2062,10 @@
         <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2079,22 +2073,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2102,24 +2096,24 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2127,22 +2121,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="K41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2150,16 +2144,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="1">
         <v>62</v>
@@ -2168,10 +2162,10 @@
         <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2179,24 +2173,24 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2204,16 +2198,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H44" s="1">
         <v>23</v>
@@ -2222,10 +2216,10 @@
         <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2233,24 +2227,24 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2258,16 +2252,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H46" s="1">
         <v>13</v>
@@ -2276,10 +2270,10 @@
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2287,26 +2281,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2">
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2314,16 +2308,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H48" s="1">
         <v>80</v>
@@ -2332,10 +2326,10 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2343,16 +2337,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H49" s="1">
         <v>55</v>
@@ -2361,10 +2355,10 @@
         <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2372,22 +2366,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2395,13 +2389,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
@@ -2409,7 +2403,7 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2417,16 +2411,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H52" s="1">
         <v>53</v>
@@ -2435,10 +2429,10 @@
         <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2446,24 +2440,24 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2471,19 +2465,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H54" s="1">
         <v>51</v>
@@ -2492,10 +2486,10 @@
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2503,24 +2497,24 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2528,16 +2522,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H56" s="1">
         <v>48</v>
@@ -2546,10 +2540,10 @@
         <v>48</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2557,27 +2551,27 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
         <v>152</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2585,30 +2579,30 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2616,16 +2610,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H59" s="1">
         <v>19</v>
@@ -2634,10 +2628,10 @@
         <v>19</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2645,24 +2639,24 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -2670,24 +2664,24 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -2695,24 +2689,24 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2720,19 +2714,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H63" s="1">
         <v>41</v>
@@ -2741,10 +2735,10 @@
         <v>41</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2752,27 +2746,27 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -2780,24 +2774,24 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,30 +2799,30 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -2836,16 +2830,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H67" s="1">
         <v>79</v>
@@ -2854,10 +2848,10 @@
         <v>79</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -2865,24 +2859,24 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -2890,19 +2884,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H69" s="1">
         <v>27</v>
@@ -2911,10 +2905,10 @@
         <v>27</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -2922,22 +2916,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -2945,16 +2939,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H71" s="1">
         <v>37</v>
@@ -2963,10 +2957,10 @@
         <v>37</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -2974,16 +2968,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H72" s="1">
         <v>28</v>
@@ -2992,10 +2986,10 @@
         <v>28</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3003,24 +2997,24 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3028,22 +3022,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3051,24 +3045,24 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3076,22 +3070,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3099,16 +3093,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H77" s="1">
         <v>24</v>
@@ -3117,10 +3111,10 @@
         <v>24</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3128,19 +3122,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H78" s="1">
         <v>36</v>
@@ -3149,10 +3143,10 @@
         <v>36</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3160,25 +3154,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3186,19 +3180,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H80" s="1">
         <v>66</v>
@@ -3207,10 +3201,10 @@
         <v>66</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3218,16 +3212,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H81" s="1">
         <v>47</v>
@@ -3236,10 +3230,10 @@
         <v>47</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3247,16 +3241,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H82" s="1">
         <v>26</v>
@@ -3265,10 +3259,10 @@
         <v>26</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3276,25 +3270,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C83" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
